--- a/BlueBird/services/pay.xlsx
+++ b/BlueBird/services/pay.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7898E40E-8AE4-9444-B9F0-062E36FD9492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A2D33C-235E-5A45-B910-975FCF941C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-7300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,11 @@
     <t>번호</t>
   </si>
   <si>
+    <t>기사번호 
+성       명 
+직       급</t>
+  </si>
+  <si>
     <t>입사일 
 퇴사일 
 근   속</t>
@@ -120,12 +125,6 @@
     <t>지급총계 
 공제총계 
 차인지급액</t>
-  </si>
-  <si>
-    <t>기사번호 
-성       명 
-직       급</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -149,11 +148,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,45 +228,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,230 +579,242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="10" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
     <col min="11" max="12" width="12.83203125" customWidth="1"/>
     <col min="13" max="17" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" ht="17">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10" t="s">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10" t="s">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="57" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A5:Q5"/>
@@ -822,14 +826,6 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
